--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_wind_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_weather_df_wind_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0189293108547767</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.03518907563025214</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08139534883720931</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04199940845903577</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.07825630252100829</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.009790209790209791</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -546,19 +546,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01597757533286612</v>
+        <v>0.004225352112676057</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01728320194057002</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01183431952662722</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06980183377698884</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1239495798319325</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09656622284512854</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1050636749545176</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -595,19 +595,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03697131026323575</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.2947368421052643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2947368421052643</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.06565126050420161</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01301390121265897</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.02310924369747901</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.001398601398601399</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.004929577464788733</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.05454545454545458</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2533987386124705</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6627906976744192</v>
+        <v>0.1798059429957544</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008873114463176574</v>
+        <v>0.6543624161073733</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.03776223776223776</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.001408450704225352</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.05314685314685318</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.03521126760563379</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.2023460410557172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09997042295178898</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.680555555555555</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1282051282051281</v>
+        <v>0.01633850020946793</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002957704821058858</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06944444444444445</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.2711864406779662</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008969866853538891</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.009702850212249849</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006802721088435371</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.01207983193277311</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.001398601398601399</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03461807988787667</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.04199514857489376</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -931,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.2987854251012156</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2987854251012156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8823529411764707</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.02387934645999159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01685891748003548</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02354590049053961</v>
+        <v>0.01760563380281691</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0254699818071558</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04930966469428011</v>
+        <v>0.03225806451612899</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06861875184856531</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.08140756302520996</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002661934338952973</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.004726890756302521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1073,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01183431952662722</v>
+        <v>0.002513615416841223</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01388888888888889</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01289418360196213</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.01409945421467555</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.023365868086365</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0145748987854251</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.04149159663865547</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01212658976634131</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.02153361344537817</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.007147862648913809</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.007731958762886604</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00887311446317657</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0157563025210084</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.001398601398601399</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.04859656472559704</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0004204625087596356</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255813953488372</v>
+        <v>0.0004548211036992117</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07837917775805947</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.1391806722689072</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.03076923076923076</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01183431952662722</v>
+        <v>0.005027230833682447</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001774622892635315</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01388888888888889</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0360196215837421</v>
+        <v>0.0774647887323943</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.03896300788356569</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2169625246548327</v>
+        <v>0.07080016757436118</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0887311446317654</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.06880252100840328</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.01258741258741259</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.1352112676056337</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1628,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5700197238658798</v>
+        <v>0.1449518223711765</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09139307897071836</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2222222222222223</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.6440677966101686</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001774622892635315</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.00315126050420168</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1720,191 +1720,6 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0005915409642117716</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.0001401541695865452</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.0145748987854251</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0002957704821058858</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
